--- a/test/pyxform-clean.xlsx
+++ b/test/pyxform-clean.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanokwa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanokwa/Documents/Work/Get ODK/Code/yanokwa/odk-pyxform-http/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65A9F62-064B-194A-9390-DF3D5108FC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="720" windowWidth="17300" windowHeight="12360" tabRatio="500"/>
+    <workbookView xWindow="3980" yWindow="880" windowWidth="17300" windowHeight="12360" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="settings" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK21" localSheetId="0">survey!#REF!</definedName>
@@ -20,7 +22,7 @@
     <definedName name="OLE_LINK38" localSheetId="0">survey!#REF!</definedName>
     <definedName name="OLE_LINK51" localSheetId="0">survey!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="130407"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>type</t>
   </si>
@@ -57,12 +59,18 @@
   </si>
   <si>
     <t>what is your name</t>
+  </si>
+  <si>
+    <t>pyxform-clean</t>
+  </si>
+  <si>
+    <t>form_title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -482,6 +490,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -807,10 +818,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -860,4 +871,28 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16861788-C20A-5D4F-B3ED-01FCC292542A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>